--- a/7.単体テスト/単体テスト_支払い通知設定.xlsx
+++ b/7.単体テスト/単体テスト_支払い通知設定.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\groupGit\7.単体テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\groupA\7.単体テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5927597D-2DA5-4814-84FC-6C70060A44B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9842911-4069-4F61-AE67-D362486AE92A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{847B7146-1FFA-4B74-8339-607F32A7E8E0}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="94">
   <si>
     <t>完成率</t>
     <rPh sb="0" eb="2">
@@ -1181,81 +1181,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>項目に上限を超える文字数の文字列(２０字)を入れた状態で追加ボタンを押下時</t>
-    <rPh sb="0" eb="2">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウゲン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>モジスウ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>モジレツ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>2.7</t>
-  </si>
-  <si>
-    <t>項目に上限を超えない文字数の文字列を(19文字)を入れた状態で追加ボタンを押下時</t>
-    <rPh sb="0" eb="2">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウゲン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>モジスウ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>モジレツ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>ジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>日付：20
@@ -1474,6 +1400,108 @@
     <rPh sb="11" eb="13">
       <t>サクジョ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>日付：20
+項目：aaaaabbbbbaaaaabbbbba</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>項目に上限を超える文字数の文字列(21字)を入れた状態で追加ボタンを押下時</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウゲン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>項目に上限を超えない文字数の文字列を(20文字)を入れた状態で追加ボタンを押下時</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウゲン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>金城</t>
+  </si>
+  <si>
+    <t>金城</t>
+    <rPh sb="0" eb="2">
+      <t>キンジョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>金城</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2211,11 +2239,11 @@
   </sheetPr>
   <dimension ref="B1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2279,9 +2307,15 @@
       <c r="F4" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="17"/>
+      <c r="G4" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" s="17">
+        <v>44008</v>
+      </c>
     </row>
     <row r="5" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="21"/>
@@ -2297,9 +2331,15 @@
       <c r="F5" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="17"/>
+      <c r="G5" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5" s="17">
+        <v>44008</v>
+      </c>
     </row>
     <row r="6" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="22"/>
@@ -2315,9 +2355,15 @@
       <c r="F6" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="17"/>
+      <c r="G6" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="17">
+        <v>44008</v>
+      </c>
     </row>
     <row r="7" spans="2:9" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="23" t="s">
@@ -2335,9 +2381,15 @@
       <c r="F7" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="17"/>
+      <c r="G7" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="17">
+        <v>44008</v>
+      </c>
     </row>
     <row r="8" spans="2:9" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="24"/>
@@ -2353,9 +2405,15 @@
       <c r="F8" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
+      <c r="G8" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" s="17">
+        <v>44008</v>
+      </c>
     </row>
     <row r="9" spans="2:9" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="24"/>
@@ -2363,17 +2421,23 @@
         <v>50</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="17"/>
+      <c r="G9" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" s="17">
+        <v>44008</v>
+      </c>
     </row>
     <row r="10" spans="2:9" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="24"/>
@@ -2381,17 +2445,23 @@
         <v>52</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="17"/>
+      <c r="G10" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" s="17">
+        <v>44008</v>
+      </c>
     </row>
     <row r="11" spans="2:9" ht="57" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="24"/>
@@ -2407,9 +2477,15 @@
       <c r="F11" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="17"/>
+      <c r="G11" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" s="17">
+        <v>44008</v>
+      </c>
     </row>
     <row r="12" spans="2:9" ht="57" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="24"/>
@@ -2425,14 +2501,20 @@
       <c r="F12" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="17"/>
+      <c r="G12" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" s="17">
+        <v>44008</v>
+      </c>
     </row>
     <row r="13" spans="2:9" ht="57" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="25"/>
       <c r="C13" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>59</v>
@@ -2443,9 +2525,15 @@
       <c r="F13" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
+      <c r="G13" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" s="17">
+        <v>44008</v>
+      </c>
     </row>
     <row r="14" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="23" t="s">
@@ -2461,11 +2549,17 @@
         <v>19</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="17"/>
+        <v>74</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="17">
+        <v>44008</v>
+      </c>
     </row>
     <row r="15" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="24"/>
@@ -2479,11 +2573,17 @@
         <v>19</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="17"/>
+        <v>75</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" s="17">
+        <v>44008</v>
+      </c>
     </row>
     <row r="16" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="25"/>
@@ -2497,11 +2597,17 @@
         <v>19</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="17"/>
+        <v>76</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="17">
+        <v>44008</v>
+      </c>
     </row>
     <row r="17" spans="2:9" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="23" t="s">
@@ -2517,11 +2623,17 @@
         <v>66</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="17"/>
+        <v>77</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" s="17">
+        <v>44008</v>
+      </c>
     </row>
     <row r="18" spans="2:9" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="24"/>
@@ -2535,11 +2647,17 @@
         <v>66</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="17"/>
+        <v>78</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="17">
+        <v>44008</v>
+      </c>
     </row>
     <row r="19" spans="2:9" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="24"/>
@@ -2553,11 +2671,17 @@
         <v>66</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="17"/>
+        <v>79</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" s="17">
+        <v>44008</v>
+      </c>
     </row>
     <row r="20" spans="2:9" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="24"/>
@@ -2571,11 +2695,17 @@
         <v>66</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="17"/>
+        <v>80</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="17">
+        <v>44008</v>
+      </c>
     </row>
     <row r="21" spans="2:9" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="24"/>
@@ -2589,11 +2719,17 @@
         <v>66</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="17"/>
+        <v>80</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" s="17">
+        <v>44008</v>
+      </c>
     </row>
     <row r="22" spans="2:9" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="24"/>
@@ -2607,11 +2743,17 @@
         <v>66</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="17"/>
+        <v>81</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I22" s="17">
+        <v>44008</v>
+      </c>
     </row>
     <row r="23" spans="2:9" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="24"/>
@@ -2625,11 +2767,17 @@
         <v>67</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="17"/>
+        <v>82</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23" s="17">
+        <v>44008</v>
+      </c>
     </row>
     <row r="24" spans="2:9" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="24"/>
@@ -2643,11 +2791,17 @@
         <v>67</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="17"/>
+        <v>83</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24" s="17">
+        <v>44008</v>
+      </c>
     </row>
     <row r="25" spans="2:9" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="24"/>
@@ -2661,11 +2815,17 @@
         <v>67</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="17"/>
+        <v>84</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I25" s="17">
+        <v>44008</v>
+      </c>
     </row>
     <row r="26" spans="2:9" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="24"/>
@@ -2679,11 +2839,17 @@
         <v>67</v>
       </c>
       <c r="F26" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="17"/>
+      <c r="H26" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I26" s="17">
+        <v>44008</v>
+      </c>
     </row>
     <row r="27" spans="2:9" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B27" s="25"/>
@@ -2697,11 +2863,17 @@
         <v>68</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="G27" s="15"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="17"/>
+        <v>86</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I27" s="17">
+        <v>44008</v>
+      </c>
     </row>
     <row r="39" spans="7:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G39" s="1" t="s">
@@ -2714,7 +2886,7 @@
       </c>
       <c r="H40" s="7">
         <f>COUNTIF($G$4:$G4,"=○")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="7:8" x14ac:dyDescent="0.4">
@@ -2732,7 +2904,7 @@
       </c>
       <c r="H42" s="5">
         <f>COUNTBLANK($G$4:$G4)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="7:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -2741,7 +2913,7 @@
       </c>
       <c r="H43" s="3">
         <f>H40/(H40+H41+H42)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
